--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398EEA2-3C5A-4A6C-AC47-F705BB07826C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C825D4-A006-49D9-9B15-53292476A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,12 +67,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -372,7 +379,7 @@
   <dimension ref="A2:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +392,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -393,7 +400,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -401,7 +408,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -409,7 +416,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -417,7 +424,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -449,7 +456,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/RoadMap.xlsx
+++ b/RoadMap.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C825D4-A006-49D9-9B15-53292476A15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD2A0D-6A28-49F2-8D0F-F23F2C21C111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задачи" sheetId="1" r:id="rId1"/>
+    <sheet name="Идеи" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Загрузка данных в виде DirHalfBars</t>
   </si>
@@ -52,6 +53,15 @@
   </si>
   <si>
     <t>Возможность подключать стартегии к BitGet</t>
+  </si>
+  <si>
+    <t>Поставить обучаться модель в режиме RL на api bitget. Может быть много вариантов:</t>
+  </si>
+  <si>
+    <t>1. Торговать по рынку</t>
+  </si>
+  <si>
+    <t>2. Торговать лимитками, где в среду передавать результат его прошлой лимитки</t>
   </si>
 </sst>
 </file>
@@ -93,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -378,7 +391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -583,4 +596,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99E0EB7-7855-4FAC-A9A2-2C5B272C1639}">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>